--- a/Week3/DIC_Week3_HousingInfoAnalysis/住宅情報_相関係数行列.xlsx
+++ b/Week3/DIC_Week3_HousingInfoAnalysis/住宅情報_相関係数行列.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Noda\git\diveintocode-ml\Week3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Noda\git\diveintocode-ml\Week3\DIC_Week3_HousingInfoAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B1219F-B634-43AC-87EA-6C1562583C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84EB070D-EB8C-49BE-8B16-081B576D8F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="2610" windowWidth="19380" windowHeight="12105" firstSheet="1" activeTab="1" xr2:uid="{B624DF83-5A00-4B5F-9B2E-342CAD4523C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B624DF83-5A00-4B5F-9B2E-342CAD4523C9}"/>
   </bookViews>
   <sheets>
     <sheet name="相関係数行列（全体）" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="57">
   <si>
     <t>Id</t>
   </si>
@@ -257,6 +257,10 @@
   </si>
   <si>
     <t>GarageCars</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OverallQual</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -4816,7 +4820,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
+      <selection pane="bottomRight" activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4887,7 +4891,7 @@
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
